--- a/biology/Zoologie/Dumetia/Dumetia.xlsx
+++ b/biology/Zoologie/Dumetia/Dumetia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dumetia est un genre d'oiseaux de la famille des Timaliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est représenté par des espèces vivant en Inde et au Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est représenté par des espèces vivant en Inde et au Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (25 août 2023)[1], ordre phylogénique :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (25 août 2023), ordre phylogénique :
 Dumetia hyperythra (Franklin, 1831) – Timalie à ventre roux
 Dumetia atriceps (Jerdon, 1839) – Timalie à tête noire</t>
         </is>
@@ -574,10 +590,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dumetia Blyth, 1852[2].
-En 2019, le genre monotypique Rhopocichla est fusionné avec le genre Dumetia en raison de similarités morphologiques[1],[3]. L'espèce Rhopocichla atriceps est renommée Dumetia atriceps[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Dumetia Blyth, 1852.
+En 2019, le genre monotypique Rhopocichla est fusionné avec le genre Dumetia en raison de similarités morphologiques,. L'espèce Rhopocichla atriceps est renommée Dumetia atriceps.
 </t>
         </is>
       </c>
